--- a/data/out/wiki/men/fifa/eu/tb_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/tb_eu_fifa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -763,16 +763,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -799,10 +799,10 @@
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -811,12 +811,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -826,13 +826,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -846,7 +846,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -876,23 +876,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -906,7 +906,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
@@ -927,32 +927,32 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -966,23 +966,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -996,23 +996,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1026,23 +1026,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1051,28 +1051,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1086,23 +1086,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1146,23 +1146,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1171,16 +1171,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1206,23 +1206,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1236,17 +1236,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1266,23 +1266,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1291,25 +1291,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1356,17 +1356,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>2</v>
@@ -1407,20 +1407,20 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1446,23 +1446,23 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1486,10 +1486,10 @@
         <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
@@ -1506,23 +1506,23 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1531,28 +1531,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1566,23 +1566,23 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1626,23 +1626,23 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1651,28 +1651,28 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1686,23 +1686,23 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1716,23 +1716,23 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1746,23 +1746,23 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1771,25 +1771,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>2</v>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1836,23 +1836,23 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -1887,32 +1887,32 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1986,23 +1986,23 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2011,28 +2011,28 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2046,23 +2046,23 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
         <v>3</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -2076,23 +2076,23 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -2106,23 +2106,23 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -2131,28 +2131,28 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2166,14 +2166,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2196,23 +2196,23 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2236,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>4</v>
@@ -2251,28 +2251,28 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -2286,23 +2286,23 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2346,41 +2346,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -2406,23 +2406,23 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2436,20 +2436,20 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>4</v>
@@ -2466,23 +2466,23 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -2491,28 +2491,28 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -2526,14 +2526,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2556,23 +2556,23 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2596,10 +2596,10 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>3</v>
@@ -2611,28 +2611,28 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -2646,23 +2646,23 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2706,20 +2706,20 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>2</v>
@@ -2731,16 +2731,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -2749,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2766,23 +2766,23 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2826,20 +2826,20 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
         <v>2</v>
@@ -2847,32 +2847,32 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2896,13 +2896,13 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -2916,23 +2916,23 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -2946,14 +2946,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -2971,28 +2971,28 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -3006,23 +3006,23 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -3066,23 +3066,23 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -3091,16 +3091,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
@@ -3126,23 +3126,23 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -3186,23 +3186,23 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -3211,28 +3211,28 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -3276,23 +3276,23 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>3</v>
@@ -3327,32 +3327,32 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -3366,14 +3366,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3396,23 +3396,23 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3451,25 +3451,25 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>2</v>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -3516,17 +3516,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>2</v>
@@ -3571,16 +3571,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -3589,10 +3589,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -3606,14 +3606,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3636,17 +3636,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Northern Ireland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Northern Ireland</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
@@ -3691,28 +3691,28 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -3756,20 +3756,20 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
         <v>2</v>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -3811,25 +3811,25 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>2</v>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -3876,20 +3876,20 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
         <v>2</v>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -3931,28 +3931,28 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -3966,14 +3966,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3996,14 +3996,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="D119" t="n">
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -4026,41 +4026,41 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
@@ -4086,14 +4086,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4116,17 +4116,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="D123" t="n">
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -4156,10 +4156,10 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -4171,16 +4171,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>1</v>
@@ -4206,23 +4206,23 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -4249,10 +4249,10 @@
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -4266,20 +4266,20 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="D128" t="n">
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
         <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
         <v>2</v>
@@ -4291,28 +4291,28 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -4326,23 +4326,23 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -4386,20 +4386,20 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D132" t="n">
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
         <v>2</v>
@@ -4411,25 +4411,25 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
         <v>2</v>
@@ -4446,23 +4446,23 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -4476,17 +4476,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -4506,23 +4506,23 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -4531,28 +4531,28 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -4566,23 +4566,23 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -4596,14 +4596,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -4626,23 +4626,23 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D140" t="n">
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -4651,28 +4651,28 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -4686,23 +4686,23 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E142" t="n">
         <v>2</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
@@ -4716,23 +4716,23 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
@@ -4746,53 +4746,53 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F144" t="n">
         <v>2</v>
       </c>
       <c r="G144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
@@ -4806,14 +4806,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4836,20 +4836,20 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
         <v>3</v>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -4876,10 +4876,10 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H148" t="n">
         <v>3</v>
@@ -4891,28 +4891,28 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -4926,23 +4926,23 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -4956,23 +4956,23 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D151" t="n">
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -4986,23 +4986,23 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D152" t="n">
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153">
@@ -5011,28 +5011,28 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -5046,23 +5046,23 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -5076,17 +5076,17 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D155" t="n">
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -5106,23 +5106,23 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D156" t="n">
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -5131,28 +5131,28 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -5166,23 +5166,23 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="n">
         <v>3</v>
       </c>
-      <c r="F158" t="n">
-        <v>0</v>
-      </c>
       <c r="G158" t="n">
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159">
@@ -5196,23 +5196,23 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D159" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" t="n">
         <v>3</v>
       </c>
-      <c r="E159" t="n">
-        <v>2</v>
-      </c>
       <c r="F159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
@@ -5226,23 +5226,23 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161">
@@ -5251,16 +5251,16 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
@@ -5269,10 +5269,10 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -5286,23 +5286,23 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -5316,23 +5316,23 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -5346,20 +5346,20 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
         <v>3</v>
@@ -5371,28 +5371,28 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -5406,23 +5406,23 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -5436,23 +5436,23 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D167" t="n">
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
@@ -5466,22 +5466,52 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="D168" t="n">
-        <v>0</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1</v>
-      </c>
-      <c r="G168" t="n">
-        <v>1</v>
-      </c>
-      <c r="H168" t="n">
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/out/wiki/men/fifa/eu/tb_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/tb_eu_fifa_men.xlsx
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1036,10 +1036,10 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1166,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1400,10 +1400,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1504,10 +1504,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1579,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1608,10 +1608,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1920,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2232,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2307,13 +2307,13 @@
         <v>0</v>
       </c>
       <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
         <v>3</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2336,10 +2336,10 @@
         <v>1</v>
       </c>
       <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
         <v>3</v>
-      </c>
-      <c r="H69">
-        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2752,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2856,10 +2856,10 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3032,16 +3032,16 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3246,10 +3246,10 @@
         <v>1</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3269,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3451,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4208,10 +4208,10 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4257,13 +4257,13 @@
         <v>1</v>
       </c>
       <c r="F143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4312,10 +4312,10 @@
         <v>0</v>
       </c>
       <c r="G145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4598,10 +4598,10 @@
         <v>1</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4621,13 +4621,13 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G157">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4878,16 +4878,16 @@
         <v>1</v>
       </c>
       <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
         <v>3</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4936,10 +4936,10 @@
         <v>0</v>
       </c>
       <c r="G169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">

--- a/data/out/wiki/men/fifa/eu/tb_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/tb_eu_fifa_men.xlsx
@@ -4926,14 +4926,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D150" t="n">
         <v>2</v>
       </c>
       <c r="E150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
@@ -4956,20 +4956,20 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
         <v>5</v>
@@ -4986,23 +4986,23 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
         <v>3</v>
       </c>
-      <c r="F152" t="n">
-        <v>2</v>
-      </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H152" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
@@ -5023,16 +5023,16 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
       </c>
       <c r="H153" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
